--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cort-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cort-Sstr2.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.065897</v>
+        <v>0.06687733333333333</v>
       </c>
       <c r="N2">
-        <v>0.197691</v>
+        <v>0.200632</v>
       </c>
       <c r="O2">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608057</v>
       </c>
       <c r="P2">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608058</v>
       </c>
       <c r="Q2">
-        <v>0.008030559870666665</v>
+        <v>0.00815002851911111</v>
       </c>
       <c r="R2">
-        <v>0.07227503883599999</v>
+        <v>0.073350256672</v>
       </c>
       <c r="S2">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608057</v>
       </c>
       <c r="T2">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.634533</v>
       </c>
       <c r="O3">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="P3">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="Q3">
         <v>0.02577585851866666</v>
@@ -632,10 +632,10 @@
         <v>0.231982726668</v>
       </c>
       <c r="S3">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="T3">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>0.07491299999999999</v>
       </c>
       <c r="O4">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="P4">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="Q4">
         <v>0.003043099238666666</v>
@@ -694,10 +694,10 @@
         <v>0.02738789314799999</v>
       </c>
       <c r="S4">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="T4">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
     </row>
   </sheetData>
